--- a/sprintplanning sprint 1.xlsx
+++ b/sprintplanning sprint 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\fontys\semester 2\proftaak\t-db2-vj1920-bartvansevenbergen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2957E05B-8630-4C41-B0BD-977E496C6165}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D75854-3EAC-4DF4-9DBF-21B4CCEA3C51}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -374,6 +374,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -410,8 +412,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -730,7 +730,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -746,30 +746,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="14" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="16"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="19"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="21"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
@@ -814,7 +814,7 @@
       <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -835,7 +835,7 @@
       <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -848,7 +848,7 @@
         <v>6</v>
       </c>
       <c r="G6" s="2"/>
-      <c r="H6" s="21" t="s">
+      <c r="H6" s="9" t="s">
         <v>62</v>
       </c>
       <c r="I6" s="3"/>
@@ -858,7 +858,7 @@
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -898,7 +898,7 @@
       <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -1146,7 +1146,7 @@
       <c r="B23" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D23" s="2" t="s">
@@ -1155,7 +1155,9 @@
       <c r="E23" s="2">
         <v>1</v>
       </c>
-      <c r="F23" s="1"/>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="3"/>
@@ -1165,7 +1167,7 @@
       <c r="B24" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="8" t="s">
         <v>60</v>
       </c>
       <c r="D24" s="2" t="s">
@@ -1174,7 +1176,9 @@
       <c r="E24" s="2">
         <v>2</v>
       </c>
-      <c r="F24" s="1"/>
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="3"/>
@@ -1402,7 +1406,7 @@
       </c>
       <c r="F39" s="4">
         <f>SUM(F4:F35)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
@@ -1431,12 +1435,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E09722137C86DB48B4CB3CBF57502A16" ma:contentTypeVersion="11" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="5428a96bd5097b8df28fea829190c551">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="54cdb042-f66b-45ea-bc25-04d0fa7a288d" xmlns:ns3="0648312d-c643-4de6-abac-e477a7331414" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2046f28c76ec2b469168e7c3a5588d50" ns2:_="" ns3:_="">
     <xsd:import namespace="54cdb042-f66b-45ea-bc25-04d0fa7a288d"/>
@@ -1647,6 +1645,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A877AF2C-8ECA-49DF-A20B-3A1A1A95267C}">
   <ds:schemaRefs>
@@ -1656,23 +1660,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2604A4E5-3592-47A8-B7C8-9516638FADE8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="0648312d-c643-4de6-abac-e477a7331414"/>
-    <ds:schemaRef ds:uri="54cdb042-f66b-45ea-bc25-04d0fa7a288d"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD73A724-05F5-46DB-ABD3-FD0D6DA9E5B2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1689,4 +1676,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2604A4E5-3592-47A8-B7C8-9516638FADE8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="0648312d-c643-4de6-abac-e477a7331414"/>
+    <ds:schemaRef ds:uri="54cdb042-f66b-45ea-bc25-04d0fa7a288d"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/sprintplanning sprint 1.xlsx
+++ b/sprintplanning sprint 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\fontys\semester 2\proftaak\t-db2-vj1920-bartvansevenbergen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D75854-3EAC-4DF4-9DBF-21B4CCEA3C51}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15A14857-1161-44D3-9BCA-8CE04430B5BB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sprint 1 inhoud" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="67">
   <si>
     <t>Planning (voordat de sprint begint)</t>
   </si>
@@ -220,6 +221,15 @@
   </si>
   <si>
     <t>geeft mij een beeld vorm van de inhoud</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>Analog discovery</t>
+  </si>
+  <si>
+    <t>https://analogdiscovery.com/</t>
   </si>
 </sst>
 </file>
@@ -730,7 +740,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -820,8 +830,8 @@
       <c r="D5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="2">
-        <v>1</v>
+      <c r="E5" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
@@ -879,7 +889,7 @@
       <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -888,9 +898,15 @@
       <c r="E8" s="2">
         <v>2.5</v>
       </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="F8" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1402,11 +1418,11 @@
       </c>
       <c r="E39" s="5">
         <f>SUM(E5:E35)</f>
-        <v>79.5</v>
+        <v>78.5</v>
       </c>
       <c r="F39" s="4">
         <f>SUM(F4:F35)</f>
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
@@ -1426,15 +1442,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E09722137C86DB48B4CB3CBF57502A16" ma:contentTypeVersion="11" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="5428a96bd5097b8df28fea829190c551">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="54cdb042-f66b-45ea-bc25-04d0fa7a288d" xmlns:ns3="0648312d-c643-4de6-abac-e477a7331414" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2046f28c76ec2b469168e7c3a5588d50" ns2:_="" ns3:_="">
     <xsd:import namespace="54cdb042-f66b-45ea-bc25-04d0fa7a288d"/>
@@ -1645,21 +1652,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A877AF2C-8ECA-49DF-A20B-3A1A1A95267C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD73A724-05F5-46DB-ABD3-FD0D6DA9E5B2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1678,7 +1686,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2604A4E5-3592-47A8-B7C8-9516638FADE8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -1693,4 +1701,12 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A877AF2C-8ECA-49DF-A20B-3A1A1A95267C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/sprintplanning sprint 1.xlsx
+++ b/sprintplanning sprint 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\fontys\semester 2\proftaak\t-db2-vj1920-bartvansevenbergen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15A14857-1161-44D3-9BCA-8CE04430B5BB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95EA6512-563C-4823-AECD-EF815E142AC9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -79,9 +79,6 @@
     <t>meten met een multimeter aan spanning en stroom van mijn arduino</t>
   </si>
   <si>
-    <t>deze begrippen leer kennen en leer om te gaan met een multimeter</t>
-  </si>
-  <si>
     <t>met een analog discovery de TX/RX van mijn arduino monitoren</t>
   </si>
   <si>
@@ -223,13 +220,16 @@
     <t>geeft mij een beeld vorm van de inhoud</t>
   </si>
   <si>
-    <t>y</t>
-  </si>
-  <si>
     <t>Analog discovery</t>
   </si>
   <si>
     <t>https://analogdiscovery.com/</t>
+  </si>
+  <si>
+    <t>https://docs.microsoft.com/en-us/windows/wsl/install-win10</t>
+  </si>
+  <si>
+    <t>a</t>
   </si>
 </sst>
 </file>
@@ -375,52 +375,73 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -740,693 +761,702 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="62.140625" customWidth="1"/>
-    <col min="4" max="4" width="86.140625" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" customWidth="1"/>
-    <col min="7" max="7" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="35.140625" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="16" style="8" customWidth="1"/>
+    <col min="3" max="3" width="62.140625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="86.140625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" style="8" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.140625" style="8" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="16" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="18"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="7"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="13"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="21"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="9"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="14"/>
+    </row>
+    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="15" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="3"/>
+      <c r="I3" s="16"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="3"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="16"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>64</v>
+      <c r="E5" s="15">
+        <v>1</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="16"/>
+    </row>
+    <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="15">
         <v>1</v>
       </c>
       <c r="F6" s="1">
         <v>6</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G6" s="15"/>
+      <c r="H6" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="I6" s="16"/>
+    </row>
+    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="2">
+      <c r="D7" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="15">
         <v>2</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="3"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="16"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="2">
+      <c r="E8" s="15">
         <v>2.5</v>
       </c>
       <c r="F8" s="1">
         <v>2.5</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I8" s="3"/>
+      <c r="G8" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" s="16"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="2">
+      <c r="E9" s="15">
         <v>2</v>
       </c>
       <c r="F9" s="1">
         <v>1</v>
       </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="3"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="16"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="2">
+      <c r="E10" s="15">
         <v>2</v>
       </c>
       <c r="F10" s="1"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="3"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="16"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="2">
+      <c r="E11" s="15">
         <v>6</v>
       </c>
       <c r="F11" s="1"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="3"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="16"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="B12" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="2">
+      <c r="E12" s="15">
         <v>4</v>
       </c>
       <c r="F12" s="1"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="3"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="16"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="3"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="16"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="3"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="16"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="15">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="16"/>
+    </row>
+    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15" s="2">
-        <v>1</v>
-      </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="3"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="2">
+      <c r="E16" s="15">
         <v>2</v>
       </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="3"/>
+      <c r="F16" s="1">
+        <v>8</v>
+      </c>
+      <c r="G16" s="15"/>
+      <c r="H16" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="I16" s="16"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="2" t="s">
+      <c r="B17" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="2">
+      <c r="E17" s="15">
         <v>3</v>
       </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="3"/>
+      <c r="F17" s="1">
+        <v>2</v>
+      </c>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="16"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="2">
+      <c r="E18" s="15">
         <v>2</v>
       </c>
       <c r="F18" s="1"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="3"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="16"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E19" s="2">
+      <c r="B19" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="15">
         <v>4</v>
       </c>
       <c r="F19" s="1"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="3"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="16"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20" s="2">
+      <c r="E20" s="15">
         <v>8</v>
       </c>
       <c r="F20" s="1"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="3"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="16"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="2" t="s">
+      <c r="B21" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E21" s="2">
+      <c r="E21" s="15">
         <v>8</v>
       </c>
       <c r="F21" s="1"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="3"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="16"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="3"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="16"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E23" s="2">
+      <c r="D23" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="15">
         <v>1</v>
       </c>
       <c r="F23" s="1">
         <v>1</v>
       </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="3"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="16"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E24" s="2">
+      <c r="C24" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="15">
         <v>2</v>
       </c>
       <c r="F24" s="1">
         <v>1</v>
       </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="3"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="16"/>
+    </row>
+    <row r="25" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E25" s="2">
+      <c r="E25" s="15">
         <v>8</v>
       </c>
       <c r="F25" s="1"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="3"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="16"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E26" s="2">
+      <c r="C26" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" s="15">
         <v>8</v>
       </c>
       <c r="F26" s="1"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="3"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="16"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E27" s="7">
+      <c r="E27" s="19">
         <v>8</v>
       </c>
       <c r="F27" s="1"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="3"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="16"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
       <c r="F28" s="1"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="3"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="16"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
       <c r="F29" s="1"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="3"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="16"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C30" s="2" t="s">
+      <c r="D30" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E30" s="2">
+      <c r="E30" s="15">
         <v>4</v>
       </c>
       <c r="F30" s="1"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="3"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="16"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
       <c r="F31" s="1"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="3"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="16"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
       <c r="F32" s="1"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="3"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="16"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="C33" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="D33" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="E33" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F33" s="1"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="3"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="16"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
-      <c r="B34" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C34" s="2" t="s">
+      <c r="B34" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="E34" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F34" s="1"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="16"/>
+    </row>
+    <row r="35" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="E34" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F34" s="1"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="3"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
       <c r="F35" s="1"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="3"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="16"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
       <c r="F36" s="1"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="3"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="16"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
       <c r="F37" s="1"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="3"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="16"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
       <c r="F38" s="1"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="3"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="16"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E39" s="5">
+      <c r="A39" s="20"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E39" s="21">
         <f>SUM(E5:E35)</f>
-        <v>78.5</v>
-      </c>
-      <c r="F39" s="4">
+        <v>79.5</v>
+      </c>
+      <c r="F39" s="20">
         <f>SUM(F4:F35)</f>
-        <v>12.5</v>
-      </c>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="6"/>
+        <v>23.5</v>
+      </c>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1435,9 +1465,10 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H6" r:id="rId1" xr:uid="{60784CFA-B03F-4DDF-87F6-23106D09519F}"/>
+    <hyperlink ref="H16" r:id="rId2" xr:uid="{2CD51B59-40E3-4CA7-B094-3C48C83548A3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1689,15 +1720,15 @@
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2604A4E5-3592-47A8-B7C8-9516638FADE8}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="54cdb042-f66b-45ea-bc25-04d0fa7a288d"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="0648312d-c643-4de6-abac-e477a7331414"/>
-    <ds:schemaRef ds:uri="54cdb042-f66b-45ea-bc25-04d0fa7a288d"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
